--- a/Grouping_photos/grouping_photos/Document/設計書.xlsx
+++ b/Grouping_photos/grouping_photos/Document/設計書.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fuminori.hakoishi\source\repos\Grouping_photos\Grouping_photos\grouping_photos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fuminori.hakoishi\source\repos\Grouping_photos\Grouping_photos\grouping_photos\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4D90FD0-3B4C-4BD3-A0AE-F63A122F5394}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6862A71B-F4A8-4262-9B97-0A2FA74FC6D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{C60E263B-2504-4172-A2F9-FF081DD6B9F1}"/>
+    <workbookView xWindow="1980" yWindow="372" windowWidth="21060" windowHeight="11988" activeTab="1" xr2:uid="{C60E263B-2504-4172-A2F9-FF081DD6B9F1}"/>
   </bookViews>
   <sheets>
     <sheet name="トレーサビリティマトリックス形式" sheetId="1" r:id="rId1"/>
@@ -642,6 +642,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -649,9 +652,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1175,8 +1175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEDFB884-6CA8-4CC5-94C3-955A3E1124C8}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView zoomScale="132" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1193,16 +1193,16 @@
       <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="34"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="18"/>
@@ -1316,7 +1316,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B0CC770-1743-4ABC-8435-06E2CC68BCF8}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="131" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="T19" sqref="T19"/>
     </sheetView>
   </sheetViews>
